--- a/scraping/fifa_ranking/data.xlsx
+++ b/scraping/fifa_ranking/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\fifa_ranking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987780F5-1A5A-4B69-81AE-95FE00BAB5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7158084-D885-4E1F-B45F-AA18F42B998E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
